--- a/Boyer Probate Tracking.xlsx
+++ b/Boyer Probate Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyboyer/Desktop/signed sealed delivered/Signed-Sealed-Delivered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB87F10E-E840-9144-8578-F0DCCB0EBE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453CB9BB-0052-0C4C-8C43-0D6B60793143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/Boyer Probate Tracking.xlsx
+++ b/Boyer Probate Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyboyer/Desktop/signed sealed delivered/Signed-Sealed-Delivered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B81DB9-FF47-5A43-ADB4-80EDBDFE6C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D59DC48-2615-F14E-83D6-39E5028FB844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13460" yWindow="500" windowWidth="22380" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="147">
   <si>
     <t xml:space="preserve">Source: </t>
   </si>
@@ -353,9 +353,6 @@
     <t>Zachary</t>
   </si>
   <si>
-    <t>MD_CC_PRO_startpage_year_Corsellton</t>
-  </si>
-  <si>
     <t>Corsellton</t>
   </si>
   <si>
@@ -460,6 +457,12 @@
   <si>
     <t>MD_CC_PRO_080_1682_Thompkins</t>
   </si>
+  <si>
+    <t>June '25</t>
+  </si>
+  <si>
+    <t>MD_CC_PRO_062_1674/7_Corsellton</t>
+  </si>
 </sst>
 </file>
 
@@ -513,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,10 +589,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2418,7 +2427,7 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2436,20 +2445,20 @@
       <c r="X37" s="1"/>
     </row>
     <row r="38" spans="1:24" s="15" customFormat="1" ht="16">
-      <c r="A38" s="18" t="s">
-        <v>110</v>
+      <c r="A38" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>112</v>
+      <c r="E38" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>16</v>
@@ -2462,7 +2471,7 @@
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
@@ -2481,13 +2490,13 @@
     </row>
     <row r="39" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A39" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>50</v>
@@ -2506,7 +2515,7 @@
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
@@ -2525,13 +2534,13 @@
     </row>
     <row r="40" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A40" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>15</v>
@@ -2567,7 +2576,7 @@
     </row>
     <row r="41" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A41" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>13</v>
@@ -2609,16 +2618,16 @@
     </row>
     <row r="42" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A42" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="E42" s="16">
         <v>1681</v>
@@ -2651,16 +2660,16 @@
     </row>
     <row r="43" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A43" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="16">
         <v>1683</v>
@@ -2693,16 +2702,16 @@
     </row>
     <row r="44" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A44" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="E44" s="17">
         <v>1683</v>
@@ -2735,7 +2744,7 @@
     </row>
     <row r="45" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A45" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>13</v>
@@ -2744,7 +2753,7 @@
         <v>55</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="17">
         <v>1680</v>
@@ -2777,13 +2786,13 @@
     </row>
     <row r="46" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A46" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>26</v>
@@ -2819,13 +2828,13 @@
     </row>
     <row r="47" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A47" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>82</v>
@@ -2861,13 +2870,13 @@
     </row>
     <row r="48" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A48" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>15</v>
@@ -2903,13 +2912,13 @@
     </row>
     <row r="49" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A49" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>50</v>
@@ -2945,13 +2954,13 @@
     </row>
     <row r="50" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A50" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>41</v>
@@ -2987,13 +2996,13 @@
     </row>
     <row r="51" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A51" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>50</v>
@@ -3027,13 +3036,13 @@
     </row>
     <row r="52" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A52" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>101</v>
@@ -3067,13 +3076,13 @@
     </row>
     <row r="53" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A53" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>50</v>
@@ -3107,16 +3116,16 @@
     </row>
     <row r="54" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A54" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="E54" s="17">
         <v>1684</v>
@@ -3147,13 +3156,13 @@
     </row>
     <row r="55" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A55" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>53</v>
@@ -3187,7 +3196,7 @@
     </row>
     <row r="56" spans="1:24" s="15" customFormat="1" ht="16">
       <c r="A56" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>

--- a/Boyer Probate Tracking.xlsx
+++ b/Boyer Probate Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyboyer/Desktop/signed sealed delivered/Signed-Sealed-Delivered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D59DC48-2615-F14E-83D6-39E5028FB844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607EB1D2-3693-4246-B222-4E60A4CD3723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13460" yWindow="500" windowWidth="22380" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="148">
   <si>
     <t xml:space="preserve">Source: </t>
   </si>
@@ -461,7 +461,10 @@
     <t>June '25</t>
   </si>
   <si>
-    <t>MD_CC_PRO_062_1674/7_Corsellton</t>
+    <t>MD_CC_PRO_062_1674_7_Corsellton</t>
+  </si>
+  <si>
+    <t>MD_CC_PRO_063_1677_8_King</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,12 +538,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -554,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,9 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -589,10 +583,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,7 +811,7 @@
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2444,95 +2441,95 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" s="15" customFormat="1" ht="16">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:24" s="21" customFormat="1" ht="16">
+      <c r="A38" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14" t="s">
+      <c r="I38" s="18"/>
+      <c r="J38" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-    </row>
-    <row r="39" spans="1:24" s="15" customFormat="1" ht="16">
-      <c r="A39" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+    </row>
+    <row r="39" spans="1:24" s="21" customFormat="1" ht="16">
+      <c r="A39" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11" t="s">
+      <c r="I39" s="18"/>
+      <c r="J39" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-    </row>
-    <row r="40" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+    </row>
+    <row r="40" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A40" s="10" t="s">
         <v>112</v>
       </c>
@@ -2545,13 +2542,13 @@
       <c r="D40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>1678</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H40" s="11" t="s">
@@ -2574,7 +2571,7 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
     </row>
-    <row r="41" spans="1:24" s="15" customFormat="1" ht="16">
+    <row r="41" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A41" s="10" t="s">
         <v>112</v>
       </c>
@@ -2587,13 +2584,13 @@
       <c r="D41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>1680</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="11" t="s">
@@ -2616,7 +2613,7 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
     </row>
-    <row r="42" spans="1:24" s="15" customFormat="1" ht="16">
+    <row r="42" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A42" s="10" t="s">
         <v>112</v>
       </c>
@@ -2629,13 +2626,13 @@
       <c r="D42" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <v>1681</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="11" t="s">
@@ -2658,7 +2655,7 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
     </row>
-    <row r="43" spans="1:24" s="15" customFormat="1" ht="16">
+    <row r="43" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A43" s="10" t="s">
         <v>112</v>
       </c>
@@ -2671,13 +2668,13 @@
       <c r="D43" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="15">
         <v>1683</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="11" t="s">
@@ -2700,501 +2697,501 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
     </row>
-    <row r="44" spans="1:24" s="15" customFormat="1" ht="16">
+    <row r="44" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A44" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="16">
         <v>1683</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-    </row>
-    <row r="45" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+    </row>
+    <row r="45" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A45" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="16">
         <v>1680</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-    </row>
-    <row r="46" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+    </row>
+    <row r="46" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A46" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="16">
         <v>1683</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-    </row>
-    <row r="47" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+    </row>
+    <row r="47" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A47" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="16">
         <v>1683</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-    </row>
-    <row r="48" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+    </row>
+    <row r="48" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A48" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="16">
         <v>1684</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-    </row>
-    <row r="49" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+    </row>
+    <row r="49" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A49" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="16">
         <v>1684</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-    </row>
-    <row r="50" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+    </row>
+    <row r="50" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A50" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>1684</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-    </row>
-    <row r="51" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+    </row>
+    <row r="51" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A51" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="16">
         <v>1685</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="14"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-    </row>
-    <row r="52" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+    </row>
+    <row r="52" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A52" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="16">
         <v>1685</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="14"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
-    </row>
-    <row r="53" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+    </row>
+    <row r="53" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A53" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="16">
         <v>1686</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="14"/>
+      <c r="G53" s="13"/>
       <c r="H53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-    </row>
-    <row r="54" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+    </row>
+    <row r="54" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A54" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="16">
         <v>1684</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="14"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-    </row>
-    <row r="55" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+    </row>
+    <row r="55" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A55" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="16">
         <v>1682</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="14"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-    </row>
-    <row r="56" spans="1:24" s="15" customFormat="1" ht="16">
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+    </row>
+    <row r="56" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A56" s="10" t="s">
         <v>112</v>
       </c>
@@ -3203,13 +3200,13 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="16">
+      <c r="E56" s="15">
         <v>1678</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="11" t="s">

--- a/Boyer Probate Tracking.xlsx
+++ b/Boyer Probate Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyboyer/Desktop/signed sealed delivered/Signed-Sealed-Delivered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607EB1D2-3693-4246-B222-4E60A4CD3723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F1122-DE25-BB43-9118-3ADACF90C35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13460" yWindow="500" windowWidth="22380" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="149">
   <si>
     <t xml:space="preserve">Source: </t>
   </si>
@@ -466,6 +466,9 @@
   <si>
     <t>MD_CC_PRO_063_1677_8_King</t>
   </si>
+  <si>
+    <t>MD_CC_PRO_064_1678_Douglass</t>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +588,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -811,7 +814,7 @@
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2441,135 +2444,135 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" s="21" customFormat="1" ht="16">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:24" ht="16">
+      <c r="A38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18" t="s">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-    </row>
-    <row r="39" spans="1:24" s="21" customFormat="1" ht="16">
-      <c r="A39" s="17" t="s">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" ht="16">
+      <c r="A39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18" t="s">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-    </row>
-    <row r="40" spans="1:24" s="14" customFormat="1" ht="16">
-      <c r="A40" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="1:24" s="21" customFormat="1" ht="16">
+      <c r="A40" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="19">
         <v>1678</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
     </row>
     <row r="41" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A41" s="10" t="s">

--- a/Boyer Probate Tracking.xlsx
+++ b/Boyer Probate Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyboyer/Desktop/signed sealed delivered/Signed-Sealed-Delivered/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F1122-DE25-BB43-9118-3ADACF90C35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418C86B0-BF9D-9C44-BFFD-0220CE5693B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13460" yWindow="500" windowWidth="22380" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="150">
   <si>
     <t xml:space="preserve">Source: </t>
   </si>
@@ -469,6 +469,9 @@
   <si>
     <t>MD_CC_PRO_064_1678_Douglass</t>
   </si>
+  <si>
+    <t>MD_CC_PRO_065_1680_Thomas</t>
+  </si>
 </sst>
 </file>
 
@@ -814,7 +817,7 @@
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2532,89 +2535,93 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" s="21" customFormat="1" ht="16">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:24" ht="16">
+      <c r="A40" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="5">
         <v>1678</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-    </row>
-    <row r="41" spans="1:24" s="14" customFormat="1" ht="16">
-      <c r="A41" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" s="21" customFormat="1" ht="16">
+      <c r="A41" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="19">
         <v>1680</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
     </row>
     <row r="42" spans="1:24" s="14" customFormat="1" ht="16">
       <c r="A42" s="10" t="s">
